--- a/datasets/DataBreaches_initialAttackVectors(2).xlsx
+++ b/datasets/DataBreaches_initialAttackVectors(2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Dokumente\HdM\Semester_6\DataStorytelling\Quellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timkossmann/Desktop/Uni/Semester 6/Data Storytelling/storytelling/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2972F3B5-EFE1-4C9E-BDF6-B65EC809F259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CDB377-78CE-924F-93E3-223832BDC964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2285D1E5-7DD9-4EE3-89A7-1FA6076E39D5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{2285D1E5-7DD9-4EE3-89A7-1FA6076E39D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -488,18 +488,18 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -516,7 +516,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -541,7 +541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -558,7 +558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -575,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -592,7 +592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -609,7 +609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -643,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -660,7 +660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -677,7 +677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -701,15 +701,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100149DBE28154BAF42ACCE8D3D2BCCFA09" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f425a0e3633630b53438179cc07895e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fc3fab7c-002e-4c2a-aca1-11f88bd4adb3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c1c79b8960add912142faf683948e54" ns2:_="">
     <xsd:import namespace="fc3fab7c-002e-4c2a-aca1-11f88bd4adb3"/>
@@ -841,6 +832,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -848,14 +848,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5B658A-9C67-4E61-8FF4-EB24A14E911F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AD1F3B4-A1C3-4BA9-B514-19E606DB455F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -873,6 +865,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5B658A-9C67-4E61-8FF4-EB24A14E911F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38ECD90C-E8F5-4A79-B433-423C218A9736}">
   <ds:schemaRefs>

--- a/datasets/DataBreaches_initialAttackVectors(2).xlsx
+++ b/datasets/DataBreaches_initialAttackVectors(2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timkossmann/Desktop/Uni/Semester 6/Data Storytelling/storytelling/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Dokumente\HdM\Semester_6\DataStorytelling\storytelling\storytelling\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CDB377-78CE-924F-93E3-223832BDC964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC1246D-03AE-4D0A-9DFD-9C2B550B6A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{2285D1E5-7DD9-4EE3-89A7-1FA6076E39D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2285D1E5-7DD9-4EE3-89A7-1FA6076E39D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -78,36 +78,18 @@
     <t>System</t>
   </si>
   <si>
-    <t>Social Engineering</t>
-  </si>
-  <si>
-    <t>Kompromittierung von Geschäfts-E-Mails</t>
-  </si>
-  <si>
     <t>Systemfehler</t>
   </si>
   <si>
-    <t>Versehentlicher Datenverlust/verlorenes Gerät</t>
-  </si>
-  <si>
     <t>böswilliger Insider</t>
   </si>
   <si>
-    <t>Kompromittierung der physischen Sicherheit</t>
-  </si>
-  <si>
-    <t>Sicherheitslücke in Software von Drittanbietern</t>
-  </si>
-  <si>
     <t>Fehlkonfiguration</t>
   </si>
   <si>
     <t>Phishing</t>
   </si>
   <si>
-    <t>kompromittierte Anmeldedaten</t>
-  </si>
-  <si>
     <t>Angriffspunkt</t>
   </si>
   <si>
@@ -121,6 +103,35 @@
   </si>
   <si>
     <t>Fehler</t>
+  </si>
+  <si>
+    <t>Kompromittierung
+von 
+Geschäfts-E-Mails</t>
+  </si>
+  <si>
+    <t>Versehentlicher 
+Datenverlust/
+verlorenes Gerät</t>
+  </si>
+  <si>
+    <t>Kompromittierung
+der physischen 
+Sicherheit</t>
+  </si>
+  <si>
+    <t>Sicherheitslücke
+in Software
+von Drittanbietern</t>
+  </si>
+  <si>
+    <t>Kompromittierte 
+Anmeldedaten</t>
+  </si>
+  <si>
+    <t>Social
+Engi-
+neering</t>
   </si>
 </sst>
 </file>
@@ -167,9 +178,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -488,35 +502,35 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A15" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -524,9 +538,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -541,9 +555,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -558,9 +572,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -575,9 +589,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -592,9 +606,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -609,9 +623,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>19</v>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -626,9 +640,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -643,9 +657,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -660,9 +674,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>17</v>
@@ -677,9 +691,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>23</v>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -833,18 +847,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -866,14 +880,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5B658A-9C67-4E61-8FF4-EB24A14E911F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38ECD90C-E8F5-4A79-B433-423C218A9736}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -887,4 +893,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5B658A-9C67-4E61-8FF4-EB24A14E911F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/datasets/DataBreaches_initialAttackVectors(2).xlsx
+++ b/datasets/DataBreaches_initialAttackVectors(2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Dokumente\HdM\Semester_6\DataStorytelling\storytelling\storytelling\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timkossmann/Desktop/Uni/Semester 6/Data Storytelling/storytelling/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC1246D-03AE-4D0A-9DFD-9C2B550B6A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF29A068-2084-1B46-B4AD-20DBC3D03073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2285D1E5-7DD9-4EE3-89A7-1FA6076E39D5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{2285D1E5-7DD9-4EE3-89A7-1FA6076E39D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -78,18 +78,33 @@
     <t>System</t>
   </si>
   <si>
+    <t>Social Engineering</t>
+  </si>
+  <si>
     <t>Systemfehler</t>
   </si>
   <si>
+    <t>Versehentlicher Datenverlust/verlorenes Gerät</t>
+  </si>
+  <si>
     <t>böswilliger Insider</t>
   </si>
   <si>
+    <t>Kompromittierung der physischen Sicherheit</t>
+  </si>
+  <si>
+    <t>Sicherheitslücke in Software von Drittanbietern</t>
+  </si>
+  <si>
     <t>Fehlkonfiguration</t>
   </si>
   <si>
     <t>Phishing</t>
   </si>
   <si>
+    <t>kompromittierte Anmeldedaten</t>
+  </si>
+  <si>
     <t>Angriffspunkt</t>
   </si>
   <si>
@@ -105,33 +120,7 @@
     <t>Fehler</t>
   </si>
   <si>
-    <t>Kompromittierung
-von 
-Geschäfts-E-Mails</t>
-  </si>
-  <si>
-    <t>Versehentlicher 
-Datenverlust/
-verlorenes Gerät</t>
-  </si>
-  <si>
-    <t>Kompromittierung
-der physischen 
-Sicherheit</t>
-  </si>
-  <si>
-    <t>Sicherheitslücke
-in Software
-von Drittanbietern</t>
-  </si>
-  <si>
-    <t>Kompromittierte 
-Anmeldedaten</t>
-  </si>
-  <si>
-    <t>Social
-Engi-
-neering</t>
+    <t>Kompromittierung\nvon\nGeschäfts-E-Mails</t>
   </si>
 </sst>
 </file>
@@ -178,12 +167,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -502,35 +488,35 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A13:A15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -538,9 +524,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -555,9 +541,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -572,9 +558,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -589,9 +575,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -606,9 +592,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -623,9 +609,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -640,9 +626,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -657,9 +643,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -674,9 +660,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>17</v>
@@ -691,9 +677,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -715,6 +701,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100149DBE28154BAF42ACCE8D3D2BCCFA09" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f425a0e3633630b53438179cc07895e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fc3fab7c-002e-4c2a-aca1-11f88bd4adb3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c1c79b8960add912142faf683948e54" ns2:_="">
     <xsd:import namespace="fc3fab7c-002e-4c2a-aca1-11f88bd4adb3"/>
@@ -846,22 +847,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38ECD90C-E8F5-4A79-B433-423C218A9736}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="fc3fab7c-002e-4c2a-aca1-11f88bd4adb3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5B658A-9C67-4E61-8FF4-EB24A14E911F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AD1F3B4-A1C3-4BA9-B514-19E606DB455F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -877,28 +887,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38ECD90C-E8F5-4A79-B433-423C218A9736}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="fc3fab7c-002e-4c2a-aca1-11f88bd4adb3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5B658A-9C67-4E61-8FF4-EB24A14E911F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/datasets/DataBreaches_initialAttackVectors(2).xlsx
+++ b/datasets/DataBreaches_initialAttackVectors(2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timkossmann/Desktop/Uni/Semester 6/Data Storytelling/storytelling/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF29A068-2084-1B46-B4AD-20DBC3D03073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FA4680-E937-BF4D-901B-3FECEB7D7071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{2285D1E5-7DD9-4EE3-89A7-1FA6076E39D5}"/>
   </bookViews>
@@ -81,6 +81,9 @@
     <t>Social Engineering</t>
   </si>
   <si>
+    <t>Kompromittierung von Geschäfts-E-Mails</t>
+  </si>
+  <si>
     <t>Systemfehler</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
   </si>
   <si>
     <t>Fehler</t>
-  </si>
-  <si>
-    <t>Kompromittierung\nvon\nGeschäfts-E-Mails</t>
   </si>
 </sst>
 </file>
@@ -501,19 +501,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>17</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>20</v>

--- a/datasets/DataBreaches_initialAttackVectors(2).xlsx
+++ b/datasets/DataBreaches_initialAttackVectors(2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Dokumente\HdM\Semester_6\DataStorytelling\storytelling\storytelling\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC1246D-03AE-4D0A-9DFD-9C2B550B6A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8002D96B-76E7-4C5F-8A44-6E5D4FDE12BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2285D1E5-7DD9-4EE3-89A7-1FA6076E39D5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2285D1E5-7DD9-4EE3-89A7-1FA6076E39D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -105,33 +105,22 @@
     <t>Fehler</t>
   </si>
   <si>
-    <t>Kompromittierung
-von 
-Geschäfts-E-Mails</t>
-  </si>
-  <si>
-    <t>Versehentlicher 
-Datenverlust/
-verlorenes Gerät</t>
-  </si>
-  <si>
-    <t>Kompromittierung
-der physischen 
-Sicherheit</t>
-  </si>
-  <si>
-    <t>Sicherheitslücke
-in Software
-von Drittanbietern</t>
-  </si>
-  <si>
-    <t>Kompromittierte 
-Anmeldedaten</t>
-  </si>
-  <si>
-    <t>Social
-Engi-
-neering</t>
+    <t>Kompromittierte Anmeldedaten</t>
+  </si>
+  <si>
+    <t>Sicherheitslücke in Software von Drittanbietern</t>
+  </si>
+  <si>
+    <t>Kompromittierung der physischen Sicherheit</t>
+  </si>
+  <si>
+    <t>Versehentlicher Datenverlust/ verlorenes Gerät</t>
+  </si>
+  <si>
+    <t>Kompromittierung von Geschäfts-E-Mails</t>
+  </si>
+  <si>
+    <t>Social Engineering</t>
   </si>
 </sst>
 </file>
@@ -502,7 +491,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A13:A15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -555,9 +544,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -589,9 +578,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -623,7 +612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -640,9 +629,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -691,9 +680,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>20</v>
